--- a/Client/配置表/excels/SkillBase.xlsx
+++ b/Client/配置表/excels/SkillBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,108 @@
   <si>
     <t>desc</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升龙击</t>
+  </si>
+  <si>
+    <t>快速挥手将身前无锋上击，将非霸体敌人挑起浮空。 释放技能时为霸体状态，不可被打断。</t>
+  </si>
+  <si>
+    <t>1001_shenglongji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏剑行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑气护体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锋重剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙剑突击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑气绞杀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锋重剑三连</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂空斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌空剑阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寂灭斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小幅度浮空脚踩青霜连续向前小幅度飞行三次带有剑气，技能击中敌人有小幅度僵直，三次攻击需要连续按技能三次放完，中途可以强制中断取消衔接强制技能，伤害普通为位移技能，和近身技能，非霸体状态收到攻击可以被中断。</t>
+  </si>
+  <si>
+    <t>左手掐诀释放白虹形成护体环绕的剑气持续时间为五秒，多短伤害，随主角移动，攻击没有僵直，上伤害普通，可打出多段连击数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将无锋向身前刺出，输出技能，高伤害，伤害为直线伤害，非霸体状态，有击飞效果，后摇不可取消。</t>
+  </si>
+  <si>
+    <t>使用青霞剑向前刺出一段距离，击中的敌人进入僵直状态，霸体状态，不可取消</t>
+  </si>
+  <si>
+    <t>将白虹剑向前方旋转飞出，停在身前一段距离，绕剑身快速旋转绞杀敌人，持续时间三秒，技能附带削减护甲属性。</t>
+  </si>
+  <si>
+    <t>手持无锋重剑挥舞三连击，霸体技能，前面两下为削减护甲，伤害不高，第三下造成暴击伤害，并且大幅度击飞，攻击后摇时间长，定位为连击收尾技能，不可强制取消。</t>
+  </si>
+  <si>
+    <t>使用青霞挥动造成屏幕斜方向的裂空攻击，削减护甲，并且大范围击飞敌人，非霸体技能</t>
+  </si>
+  <si>
+    <t>跳起来，飞身空中，然后向前方发射细小的剑气，击中敌人造成僵直</t>
+  </si>
+  <si>
+    <t>白虹飞出穿中敌人僵直，持青霞冲刺到过敌人，然后用无锋将敌人重剑击飞，全程霸体，不可取消</t>
+  </si>
+  <si>
+    <t>1002_tajianxing</t>
+  </si>
+  <si>
+    <t>1003_jianqihuti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004_wufengzhongjian</t>
+  </si>
+  <si>
+    <t>1005_longjiantuxi</t>
+  </si>
+  <si>
+    <t>1006_jianqijiaosha</t>
+  </si>
+  <si>
+    <t>1007_zhongjiansanlian</t>
+  </si>
+  <si>
+    <t>1008_liekongzhan</t>
+  </si>
+  <si>
+    <t>1009_lingkongjianzhen</t>
+  </si>
+  <si>
+    <t>1010_jimiezhan</t>
   </si>
 </sst>
 </file>
@@ -120,20 +222,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -141,12 +243,7 @@
     <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -438,365 +535,476 @@
   <dimension ref="A3:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
-    <col min="3" max="9" width="31" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.625" style="2" customWidth="1"/>
+    <col min="5" max="9" width="31" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18" style="2" customWidth="1"/>
+    <col min="20" max="20" width="13.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.125" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="4"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
+    <row r="5" spans="1:7" ht="33">
+      <c r="A5" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="66">
+      <c r="A6" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="33">
+      <c r="A7" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="33">
+      <c r="A8" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="33">
+      <c r="A9" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="33">
+      <c r="A10" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="49.5">
+      <c r="A11" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="33">
+      <c r="A12" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A13" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="33">
+      <c r="A14" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="4:7">
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="4:7">
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="4:7">
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="4:7">
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="4:7">
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="4:7">
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="4:7">
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="4:7">
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="4:7">
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="4:10">
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="4:10">
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="4:10">
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="4:10">
-      <c r="E36" s="3"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="4:10">
-      <c r="E37" s="3"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="4:10">
-      <c r="E38" s="3"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="4:10">
-      <c r="E39" s="3"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="4:10" ht="17.25">
-      <c r="E40" s="3"/>
+      <c r="E40" s="4"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="4:10" ht="17.25">
-      <c r="E41" s="3"/>
+      <c r="E41" s="4"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="4:10" ht="17.25">
-      <c r="E42" s="3"/>
+      <c r="E42" s="4"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="4:10" ht="17.25">
-      <c r="E43" s="3"/>
+      <c r="E43" s="4"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="4:10" ht="17.25">
-      <c r="E44" s="3"/>
+      <c r="E44" s="4"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="4:10" ht="17.25">
-      <c r="E45" s="3"/>
+      <c r="E45" s="4"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="4:10" ht="17.25">
-      <c r="E46" s="3"/>
+      <c r="E46" s="4"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="4:10" ht="17.25">
-      <c r="E47" s="3"/>
+      <c r="E47" s="4"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="4:10">
-      <c r="E48" s="3"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="5:10">
-      <c r="E49" s="3"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="5:10">
-      <c r="E50" s="3"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="5:10" ht="17.25">
-      <c r="E51" s="3"/>
+      <c r="E51" s="4"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="5:10">
-      <c r="E52" s="3"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="5:10">
-      <c r="E53" s="3"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="5:10">
-      <c r="E54" s="3"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="5:10">
-      <c r="E55" s="3"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="5:10">
-      <c r="E56" s="3"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="5:10">
-      <c r="E57" s="3"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="5:10">
-      <c r="E58" s="3"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="5:10">
-      <c r="E59" s="3"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="5:10">
-      <c r="E60" s="3"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="5:10">
-      <c r="E61" s="3"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="5:10">
-      <c r="E62" s="3"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="5:10">
-      <c r="E63" s="3"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="5:10">
-      <c r="E64" s="3"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="5:5">
-      <c r="E65" s="3"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="5:5">
-      <c r="E66" s="3"/>
+      <c r="E66" s="4"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="3"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="5:5">
-      <c r="E68" s="3"/>
+      <c r="E68" s="4"/>
     </row>
     <row r="69" spans="5:5">
-      <c r="E69" s="3"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="5:5">
-      <c r="E70" s="3"/>
+      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="3"/>
+      <c r="E71" s="4"/>
     </row>
     <row r="72" spans="5:5">
-      <c r="E72" s="3"/>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="5:5">
-      <c r="E73" s="3"/>
+      <c r="E73" s="4"/>
     </row>
     <row r="74" spans="5:5">
-      <c r="E74" s="3"/>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="5:5">
-      <c r="E75" s="3"/>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" spans="5:5">
-      <c r="E76" s="3"/>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" spans="5:5">
-      <c r="E77" s="3"/>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" spans="5:5">
-      <c r="E78" s="3"/>
+      <c r="E78" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Client/配置表/excels/SkillBase.xlsx
+++ b/Client/配置表/excels/SkillBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>1010_jimiezhan</t>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -532,35 +540,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:J78"/>
+  <dimension ref="A3:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.625" style="2" customWidth="1"/>
-    <col min="5" max="9" width="31" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18" style="2" customWidth="1"/>
-    <col min="20" max="20" width="13.125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.125" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="2" max="3" width="16.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.625" style="2" customWidth="1"/>
+    <col min="6" max="10" width="31" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18" style="2" customWidth="1"/>
+    <col min="21" max="21" width="13.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.125" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -568,13 +576,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,429 +593,433 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33">
+    <row r="5" spans="1:8" ht="33">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="66">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="66">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="33">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="33">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="33">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="33">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="33">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="33">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="33">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="33">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="49.5">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="49.5">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="33">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="33">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="33">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="33">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="E15" s="3"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="E16" s="3"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="4:7">
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" s="3"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="4:7">
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" s="3"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="4:7">
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" s="3"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="4:7">
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="3"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="4:7">
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" s="3"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="4:7">
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" s="3"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="4:7">
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="4:7">
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" s="3"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="4:7">
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="3"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="4:7">
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" s="3"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="4:7">
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="4:7">
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" s="3"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="4:7">
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" s="3"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="4:7">
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" s="3"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="4:7">
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" s="3"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="4:7">
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="5:8">
+      <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="4:10">
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="5:11">
+      <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="4:10">
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="5:11">
+      <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="4:10">
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="5:11">
+      <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="4:10">
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="4:10">
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="4:10">
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="4:10">
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="4:10" ht="17.25">
-      <c r="E40" s="4"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="4:10" ht="17.25">
-      <c r="E41" s="4"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="4:10" ht="17.25">
-      <c r="E42" s="4"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="4:10" ht="17.25">
-      <c r="E43" s="4"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="4:10" ht="17.25">
-      <c r="E44" s="4"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="4:10" ht="17.25">
-      <c r="E45" s="4"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="4:10" ht="17.25">
-      <c r="E46" s="4"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="4:10" ht="17.25">
-      <c r="E47" s="4"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="4:10">
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="5:10">
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="5:10">
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="5:10" ht="17.25">
-      <c r="E51" s="4"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="5:10">
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="5:10">
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="5:10">
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="5:10">
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="5:10">
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="5:10">
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="5:10">
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="5:10">
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="5:10">
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="5:10">
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="5:10">
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="5:10">
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="5:10">
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="5:5">
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="5:5">
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="5:5">
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="5:5">
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="5:5">
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="5:5">
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="5:5">
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="5:5">
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="5:5">
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="5:5">
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="5:5">
-      <c r="E78" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="5:11">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="5:11">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="5:11">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="5:11">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="5:11" ht="17.25">
+      <c r="F40" s="4"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="5:11" ht="17.25">
+      <c r="F41" s="4"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="5:11" ht="17.25">
+      <c r="F42" s="4"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="5:11" ht="17.25">
+      <c r="F43" s="4"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="5:11" ht="17.25">
+      <c r="F44" s="4"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="5:11" ht="17.25">
+      <c r="F45" s="4"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="5:11" ht="17.25">
+      <c r="F46" s="4"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="5:11" ht="17.25">
+      <c r="F47" s="4"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="5:11">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="6:11">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="6:11">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="6:11" ht="17.25">
+      <c r="F51" s="4"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="6:11">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="6:11">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="6:11">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="6:11">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="6:11">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="6:11">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="6:11">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="6:11">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="6:11">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="6:11">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="6:11">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="6:11">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="6:11">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Client/配置表/excels/SkillBase.xlsx
+++ b/Client/配置表/excels/SkillBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -156,6 +156,36 @@
   <si>
     <t>action</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_1_g</t>
+  </si>
+  <si>
+    <t>skill3_g</t>
+  </si>
+  <si>
+    <t>skill4_g</t>
+  </si>
+  <si>
+    <t>skill6_g</t>
+  </si>
+  <si>
+    <t>skill5_g</t>
+  </si>
+  <si>
+    <t>skill7_g</t>
+  </si>
+  <si>
+    <t>skill9_q</t>
+  </si>
+  <si>
+    <t>skill2_1_q</t>
+  </si>
+  <si>
+    <t>skill10_g1</t>
+  </si>
+  <si>
+    <t>skill8_q</t>
   </si>
 </sst>
 </file>
@@ -543,7 +573,7 @@
   <dimension ref="A3:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -609,6 +639,9 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -624,7 +657,9 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
@@ -640,6 +675,9 @@
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
@@ -655,6 +693,9 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
@@ -670,6 +711,9 @@
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
@@ -685,6 +729,9 @@
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
@@ -700,6 +747,9 @@
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
@@ -715,6 +765,9 @@
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
@@ -730,6 +783,9 @@
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
@@ -746,6 +802,9 @@
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>37</v>

--- a/Client/配置表/excels/SkillBase.xlsx
+++ b/Client/配置表/excels/SkillBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -186,6 +186,14 @@
   </si>
   <si>
     <t>skill8_q</t>
+  </si>
+  <si>
+    <t>技能系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>treeType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -570,35 +578,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:K78"/>
+  <dimension ref="A3:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
-    <col min="2" max="3" width="16.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.625" style="2" customWidth="1"/>
-    <col min="6" max="10" width="31" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15.875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="18" style="2" customWidth="1"/>
-    <col min="21" max="21" width="13.125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="15.125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="2"/>
+    <col min="2" max="4" width="16.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31" style="2" customWidth="1"/>
+    <col min="6" max="6" width="61.625" style="2" customWidth="1"/>
+    <col min="7" max="11" width="31" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15.875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="15.125" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -609,13 +617,16 @@
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,13 +637,16 @@
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33">
+    <row r="5" spans="1:9" ht="33">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -642,15 +656,18 @@
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="66">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="66">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -660,15 +677,18 @@
       <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="33">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="33">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -678,15 +698,18 @@
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="33">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="33">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -696,15 +719,18 @@
       <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="33">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="33">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -714,15 +740,18 @@
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="33">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="33">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -732,15 +761,18 @@
       <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="49.5">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="49.5">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -750,15 +782,18 @@
       <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="33">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="33">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -768,15 +803,18 @@
       <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -786,17 +824,20 @@
       <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="33">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="33">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -806,279 +847,282 @@
       <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="F15" s="3"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="F16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="5:8">
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="6:9">
+      <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="5:8">
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="6:9">
+      <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="5:8">
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" s="3"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="5:8">
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="6:9">
+      <c r="F20" s="3"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="5:8">
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21" s="3"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="5:8">
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22" s="3"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="5:8">
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23" s="3"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="5:8">
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24" s="3"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="5:8">
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="F25" s="3"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="5:8">
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="6:9">
+      <c r="F26" s="3"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="5:8">
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="6:9">
+      <c r="F27" s="3"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="5:8">
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="6:9">
+      <c r="F28" s="3"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="5:8">
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="6:9">
+      <c r="F29" s="3"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="5:8">
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="6:9">
+      <c r="F30" s="3"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="5:8">
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="6:9">
+      <c r="F31" s="3"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="5:8">
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="6:9">
+      <c r="F32" s="3"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="5:11">
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="6:12">
+      <c r="F33" s="3"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="5:11">
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="6:12">
+      <c r="F34" s="3"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="5:11">
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="6:12">
+      <c r="F35" s="3"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="5:11">
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="5:11">
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="5:11">
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="5:11">
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="5:11" ht="17.25">
-      <c r="F40" s="4"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="5:11" ht="17.25">
-      <c r="F41" s="4"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="5:11" ht="17.25">
-      <c r="F42" s="4"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="5:11" ht="17.25">
-      <c r="F43" s="4"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="5:11" ht="17.25">
-      <c r="F44" s="4"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="5:11" ht="17.25">
-      <c r="F45" s="4"/>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="5:11" ht="17.25">
-      <c r="F46" s="4"/>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="5:11" ht="17.25">
-      <c r="F47" s="4"/>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="5:11">
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="6:11">
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="6:11">
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="6:11" ht="17.25">
-      <c r="F51" s="4"/>
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="6:11">
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="6:11">
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="6:11">
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="6:11">
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="6:11">
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="6:11">
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="6:11">
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="6:11">
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="6:11">
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="6:11">
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="6:11">
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="6:11">
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="6:11">
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="6:6">
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="6:6">
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="6:6">
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="6:6">
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="6:6">
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="6:6">
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="6:6">
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="6:6">
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="6:6">
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="6:6">
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="6:6">
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="6:6">
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="6:6">
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="6:6">
-      <c r="F78" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="6:12">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="6:12">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="6:12">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="6:12">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="6:12" ht="17.25">
+      <c r="G40" s="4"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="6:12" ht="17.25">
+      <c r="G41" s="4"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="6:12" ht="17.25">
+      <c r="G42" s="4"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="6:12" ht="17.25">
+      <c r="G43" s="4"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="6:12" ht="17.25">
+      <c r="G44" s="4"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="6:12" ht="17.25">
+      <c r="G45" s="4"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="6:12" ht="17.25">
+      <c r="G46" s="4"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="6:12" ht="17.25">
+      <c r="G47" s="4"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="6:12">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="7:12">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="7:12">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="7:12" ht="17.25">
+      <c r="G51" s="4"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="7:12">
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="7:12">
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="7:12">
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="7:12">
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="7:12">
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="7:12">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="7:12">
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="7:12">
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="7:12">
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="7:12">
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="7:12">
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="7:12">
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="7:12">
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="7:7">
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="7:7">
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="7:7">
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="7:7">
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="7:7">
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="7:7">
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="7:7">
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="7:7">
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="7:7">
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="7:7">
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="7:7">
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="7:7">
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="7:7">
+      <c r="G78" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Client/配置表/excels/SkillBase.xlsx
+++ b/Client/配置表/excels/SkillBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -917,12 +917,18 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>2001</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>3001</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>

--- a/Client/配置表/excels/SkillBase.xlsx
+++ b/Client/配置表/excels/SkillBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -935,60 +935,90 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>4001</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>4002</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>4003</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>4004</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>4005</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>4006</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>4007</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>4008</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>4009</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>4010</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>

--- a/Client/配置表/excels/SkillBase.xlsx
+++ b/Client/配置表/excels/SkillBase.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>技能id</t>
   </si>
@@ -36,6 +36,9 @@
     <t>技能描述</t>
   </si>
   <si>
+    <t>视频名</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t>desc</t>
   </si>
   <si>
+    <t>videoName</t>
+  </si>
+  <si>
     <t>升龙击</t>
   </si>
   <si>
@@ -69,6 +75,9 @@
     <t>踏剑行</t>
   </si>
   <si>
+    <t>skill2_1_q,skill2_1_g</t>
+  </si>
+  <si>
     <t>1002_tajianxing</t>
   </si>
   <si>
@@ -138,6 +147,9 @@
     <t>裂空斩</t>
   </si>
   <si>
+    <t>skill8_q,skill8_g</t>
+  </si>
+  <si>
     <t>1008_liekongzhan</t>
   </si>
   <si>
@@ -147,6 +159,9 @@
     <t>凌空剑阵</t>
   </si>
   <si>
+    <t>skill9_q,skill9_g</t>
+  </si>
+  <si>
     <t>1009_lingkongjianzhen</t>
   </si>
   <si>
@@ -174,27 +189,13 @@
     <t>block</t>
   </si>
   <si>
-    <t>skill2_1_q,skill2_1_g</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill8_q,skill8_g</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill9_q,skill9_g</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>落击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>fall_attack_g</t>
   </si>
   <si>
     <t>前冲击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>front_attack_g</t>
@@ -204,7 +205,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,26 +236,350 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -256,12 +587,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -278,18 +851,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 3" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -578,16 +1198,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -614,7 +1234,7 @@
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,192 +1253,198 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="33">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="33" spans="1:7">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="66">
+    <row r="6" ht="66" spans="1:7">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="33">
+    <row r="7" ht="33" spans="1:7">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="33">
+    <row r="8" ht="33" spans="1:7">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="33">
+    <row r="9" ht="33" spans="1:7">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="33">
+    <row r="10" ht="33" spans="1:7">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="49.5">
+    <row r="11" ht="49.5" spans="1:7">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="33">
+    <row r="12" ht="33" spans="1:7">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -827,42 +1453,42 @@
         <v>1009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="33">
+    <row r="14" ht="33" spans="1:9">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -873,13 +1499,13 @@
         <v>1011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
@@ -891,10 +1517,10 @@
         <v>1012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
@@ -906,10 +1532,10 @@
         <v>1013</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -1024,136 +1650,136 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="6:9">
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="6:9">
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="6:9">
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="6:12">
+    <row r="33" spans="6:9">
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="6:12">
+    <row r="34" spans="6:9">
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="6:12">
+    <row r="35" spans="6:9">
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="6:12">
+    <row r="36" spans="7:7">
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="6:12">
+    <row r="37" spans="7:7">
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="6:12">
+    <row r="38" spans="7:7">
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="6:12">
+    <row r="39" spans="7:7">
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="6:12" ht="17.25">
+    <row r="40" ht="17.25" spans="7:12">
       <c r="G40" s="3"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="6:12" ht="17.25">
+    <row r="41" ht="17.25" spans="7:12">
       <c r="G41" s="3"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="6:12" ht="17.25">
+    <row r="42" ht="17.25" spans="7:12">
       <c r="G42" s="3"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="6:12" ht="17.25">
+    <row r="43" ht="17.25" spans="7:12">
       <c r="G43" s="3"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="6:12" ht="17.25">
+    <row r="44" ht="17.25" spans="7:12">
       <c r="G44" s="3"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="6:12" ht="17.25">
+    <row r="45" ht="17.25" spans="7:12">
       <c r="G45" s="3"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="6:12" ht="17.25">
+    <row r="46" ht="17.25" spans="7:12">
       <c r="G46" s="3"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="6:12" ht="17.25">
+    <row r="47" ht="17.25" spans="7:12">
       <c r="G47" s="3"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="6:12">
+    <row r="48" spans="7:7">
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="7:12">
+    <row r="49" spans="7:7">
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="7:12">
+    <row r="50" spans="7:7">
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="7:12" ht="17.25">
+    <row r="51" ht="17.25" spans="7:12">
       <c r="G51" s="3"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="7:12">
+    <row r="52" spans="7:7">
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="7:12">
+    <row r="53" spans="7:7">
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="7:12">
+    <row r="54" spans="7:7">
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="7:12">
+    <row r="55" spans="7:7">
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="7:12">
+    <row r="56" spans="7:7">
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="7:12">
+    <row r="57" spans="7:7">
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="7:12">
+    <row r="58" spans="7:7">
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="7:12">
+    <row r="59" spans="7:7">
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="7:12">
+    <row r="60" spans="7:7">
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="7:12">
+    <row r="61" spans="7:7">
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="7:12">
+    <row r="62" spans="7:7">
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="7:12">
+    <row r="63" spans="7:7">
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="7:12">
+    <row r="64" spans="7:7">
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="7:7">
@@ -1199,36 +1825,42 @@
       <c r="G78" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/配置表/excels/SkillBase.xlsx
+++ b/Client/配置表/excels/SkillBase.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>技能id</t>
   </si>
@@ -93,9 +93,6 @@
     <t>1003_jianqihuti</t>
   </si>
   <si>
-    <t>左手掐诀释放白虹形成护体环绕的剑气持续时间为五秒，多短伤害，随主角移动，攻击没有僵直，上伤害普通，可打出多段连击数</t>
-  </si>
-  <si>
     <t>无锋重剑</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>1004_wufengzhongjian</t>
   </si>
   <si>
-    <t>将无锋向身前刺出，输出技能，高伤害，伤害为直线伤害，非霸体状态，有击飞效果，后摇不可取消。</t>
-  </si>
-  <si>
     <t>龙剑突击</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>1006_jianqijiaosha</t>
   </si>
   <si>
-    <t>将白虹剑向前方旋转飞出，停在身前一段距离，绕剑身快速旋转绞杀敌人，持续时间三秒，技能附带削减护甲属性。</t>
-  </si>
-  <si>
     <t>无锋重剑三连</t>
   </si>
   <si>
@@ -141,77 +132,116 @@
     <t>1007_zhongjiansanlian</t>
   </si>
   <si>
+    <t>裂空斩</t>
+  </si>
+  <si>
+    <t>skill8_q,skill8_g</t>
+  </si>
+  <si>
+    <t>1008_liekongzhan</t>
+  </si>
+  <si>
+    <t>凌空剑阵</t>
+  </si>
+  <si>
+    <t>skill9_q,skill9_g</t>
+  </si>
+  <si>
+    <t>1009_lingkongjianzhen</t>
+  </si>
+  <si>
+    <t>跳起来，飞身空中，然后向前方发射细小的剑气，击中敌人造成僵直</t>
+  </si>
+  <si>
+    <t>寂灭斩</t>
+  </si>
+  <si>
+    <t>skill10_g1</t>
+  </si>
+  <si>
+    <t>1010_jimiezhan</t>
+  </si>
+  <si>
+    <t>格挡</t>
+  </si>
+  <si>
+    <t>block_q</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>落击</t>
+  </si>
+  <si>
+    <t>fall_attack_g</t>
+  </si>
+  <si>
+    <t>前冲击</t>
+  </si>
+  <si>
+    <t>front_attack_g</t>
+  </si>
+  <si>
+    <t>jianqihuti</t>
+  </si>
+  <si>
+    <t>jianqijiaosha</t>
+  </si>
+  <si>
+    <t>jianqituxi</t>
+  </si>
+  <si>
+    <t>jimiezhan</t>
+  </si>
+  <si>
+    <t>liekongzhan</t>
+  </si>
+  <si>
+    <t>lingkongjianzhen</t>
+  </si>
+  <si>
+    <t>shenglongji</t>
+  </si>
+  <si>
+    <t>tajianxing</t>
+  </si>
+  <si>
+    <t>wufengzhongjian</t>
+  </si>
+  <si>
+    <t>zhongjiansanlian</t>
+  </si>
+  <si>
+    <t>持青霞左右冲刺过敌人，然后用无锋将敌人重剑击飞，全程霸体，不可取消</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用青霞挥动造成屏幕斜方向的裂空攻击，削减护甲，并且大范围击飞敌人，霸体技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>手持无锋重剑挥舞三连击，霸体技能，前面两下为削减护甲，伤害不高，第三下造成暴击伤害，并且大幅度击飞，攻击后摇时间长，定位为连击收尾技能，不可强制取消。</t>
-  </si>
-  <si>
-    <t>裂空斩</t>
-  </si>
-  <si>
-    <t>skill8_q,skill8_g</t>
-  </si>
-  <si>
-    <t>1008_liekongzhan</t>
-  </si>
-  <si>
-    <t>使用青霞挥动造成屏幕斜方向的裂空攻击，削减护甲，并且大范围击飞敌人，非霸体技能</t>
-  </si>
-  <si>
-    <t>凌空剑阵</t>
-  </si>
-  <si>
-    <t>skill9_q,skill9_g</t>
-  </si>
-  <si>
-    <t>1009_lingkongjianzhen</t>
-  </si>
-  <si>
-    <t>跳起来，飞身空中，然后向前方发射细小的剑气，击中敌人造成僵直</t>
-  </si>
-  <si>
-    <t>寂灭斩</t>
-  </si>
-  <si>
-    <t>skill10_g1</t>
-  </si>
-  <si>
-    <t>1010_jimiezhan</t>
-  </si>
-  <si>
-    <t>白虹飞出穿中敌人僵直，持青霞冲刺到过敌人，然后用无锋将敌人重剑击飞，全程霸体，不可取消</t>
-  </si>
-  <si>
-    <t>格挡</t>
-  </si>
-  <si>
-    <t>block_q</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>落击</t>
-  </si>
-  <si>
-    <t>fall_attack_g</t>
-  </si>
-  <si>
-    <t>前冲击</t>
-  </si>
-  <si>
-    <t>front_attack_g</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将白虹剑向前方旋转飞出，停在身前一段距离，绕剑身快速旋转绞杀敌人，持续时间五秒，技能附带削减护甲属性。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将无锋向身前刺出，输出技能，高伤害，伤害为直线伤害，非霸体状态，有击飞效果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左手掐诀释放白虹形成护体环绕的剑气持续时间为五秒，多短伤害，随主角移动，攻击没有僵直，伤害普通，可打出多段连击数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,350 +266,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -587,254 +293,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -851,65 +315,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 3" xfId="49"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1198,16 +615,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1234,7 +651,7 @@
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1280,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="33" spans="1:7">
+    <row r="5" spans="1:9" ht="33">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -1299,9 +716,11 @@
       <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" ht="66" spans="1:7">
+      <c r="G5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="66">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
@@ -1320,9 +739,11 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" ht="33" spans="1:7">
+      <c r="G6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="33">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
@@ -1339,158 +760,174 @@
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" ht="33" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="33">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" ht="33" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="33">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" ht="33" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" ht="49.5" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="49.5">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" ht="33" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="33">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="33" spans="1:9">
+    <row r="14" spans="1:9" ht="33">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -1499,13 +936,13 @@
         <v>1011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
@@ -1517,10 +954,10 @@
         <v>1012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
@@ -1532,10 +969,10 @@
         <v>1013</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -1650,136 +1087,136 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="6:9">
+    <row r="30" spans="1:9">
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="6:9">
+    <row r="31" spans="1:9">
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="6:9">
+    <row r="32" spans="1:9">
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="6:9">
+    <row r="33" spans="6:12">
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="6:9">
+    <row r="34" spans="6:12">
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="6:9">
+    <row r="35" spans="6:12">
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="7:7">
+    <row r="36" spans="6:12">
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="7:7">
+    <row r="37" spans="6:12">
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="7:7">
+    <row r="38" spans="6:12">
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="7:7">
+    <row r="39" spans="6:12">
       <c r="G39" s="3"/>
     </row>
-    <row r="40" ht="17.25" spans="7:12">
+    <row r="40" spans="6:12" ht="17.25">
       <c r="G40" s="3"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" ht="17.25" spans="7:12">
+    <row r="41" spans="6:12" ht="17.25">
       <c r="G41" s="3"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" ht="17.25" spans="7:12">
+    <row r="42" spans="6:12" ht="17.25">
       <c r="G42" s="3"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" ht="17.25" spans="7:12">
+    <row r="43" spans="6:12" ht="17.25">
       <c r="G43" s="3"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" ht="17.25" spans="7:12">
+    <row r="44" spans="6:12" ht="17.25">
       <c r="G44" s="3"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" ht="17.25" spans="7:12">
+    <row r="45" spans="6:12" ht="17.25">
       <c r="G45" s="3"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" ht="17.25" spans="7:12">
+    <row r="46" spans="6:12" ht="17.25">
       <c r="G46" s="3"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" ht="17.25" spans="7:12">
+    <row r="47" spans="6:12" ht="17.25">
       <c r="G47" s="3"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="7:7">
+    <row r="48" spans="6:12">
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="7:7">
+    <row r="49" spans="7:12">
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="7:7">
+    <row r="50" spans="7:12">
       <c r="G50" s="3"/>
     </row>
-    <row r="51" ht="17.25" spans="7:12">
+    <row r="51" spans="7:12" ht="17.25">
       <c r="G51" s="3"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="7:7">
+    <row r="52" spans="7:12">
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="7:7">
+    <row r="53" spans="7:12">
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="7:7">
+    <row r="54" spans="7:12">
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="7:7">
+    <row r="55" spans="7:12">
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="7:7">
+    <row r="56" spans="7:12">
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="7:7">
+    <row r="57" spans="7:12">
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="7:7">
+    <row r="58" spans="7:12">
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="7:7">
+    <row r="59" spans="7:12">
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="7:7">
+    <row r="60" spans="7:12">
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="7:7">
+    <row r="61" spans="7:12">
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="7:7">
+    <row r="62" spans="7:12">
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="7:7">
+    <row r="63" spans="7:12">
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="7:7">
+    <row r="64" spans="7:12">
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="7:7">
@@ -1825,42 +1262,36 @@
       <c r="G78" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>